--- a/ePICreator/Remsima.xlsx
+++ b/ePICreator/Remsima.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/vulcan-eproduct-info/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1261B10F-687A-004D-AD95-34B0CB637EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8902FBE-DD1D-D34A-B631-999A85CDBB9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="9" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="4" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="7" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="155">
   <si>
     <t>id</t>
   </si>
@@ -346,12 +346,6 @@
   </si>
   <si>
     <t>packaging_quantity</t>
-  </si>
-  <si>
-    <t>xx</t>
-  </si>
-  <si>
-    <t>EU/1/19/1370/001</t>
   </si>
   <si>
     <t>100000072062</t>
@@ -1042,12 +1036,18 @@
 &lt;li&gt;reduce the number of abnormal openings (fistulae) between your bowel and your skin that have not been controlled by other medicines or surgery&lt;/li&gt;
 &lt;/ul&gt;         &lt;/div&gt;</t>
   </si>
+  <si>
+    <t>https://spor.ema.europa.eu/pmswi|https://www.who-umc.org/phpid</t>
+  </si>
+  <si>
+    <t>EU/1/13/853/001|0xF79CABF272B6A7EEF104DDDA44E82718</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1150,6 +1150,20 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF8888FF"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1172,7 +1186,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1202,6 +1216,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
@@ -1578,10 +1594,10 @@
     <row r="2" spans="1:13" ht="18">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>25</v>
@@ -1599,13 +1615,13 @@
         <v>28</v>
       </c>
       <c r="I2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="K2" s="11" t="s">
         <v>119</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>121</v>
       </c>
       <c r="L2">
         <v>1062</v>
@@ -1614,16 +1630,16 @@
     </row>
     <row r="3" spans="1:13">
       <c r="B3" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="11" t="s">
@@ -1633,16 +1649,16 @@
         <v>28</v>
       </c>
       <c r="I3" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="J3" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="J3" s="9" t="s">
-        <v>114</v>
-      </c>
       <c r="K3" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1655,8 +1671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05DE958-7C5A-B14B-9983-3CEB258B5640}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1721,10 +1737,10 @@
     <row r="2" spans="1:16" ht="409.6">
       <c r="A2" s="1"/>
       <c r="B2" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>100</v>
+        <v>120</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>115</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>48</v>
@@ -1733,32 +1749,32 @@
         <v>50</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G2" s="24"/>
       <c r="H2" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="K2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="N2" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="O2" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="P2" s="7"/>
     </row>
@@ -1787,7 +1803,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1818,14 +1834,15 @@
         <v>43</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="D2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1834,7 +1851,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1884,10 +1901,10 @@
     <row r="2" spans="1:11">
       <c r="A2" s="12"/>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>31</v>
@@ -1896,19 +1913,19 @@
         <v>7</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>40</v>
       </c>
       <c r="H2" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>104</v>
-      </c>
       <c r="J2" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2008,10 +2025,10 @@
     <row r="2" spans="1:14" ht="18">
       <c r="A2" s="1"/>
       <c r="B2" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D2" t="s">
         <v>36</v>
@@ -2024,10 +2041,10 @@
         <v>37</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K2" t="s">
         <v>38</v>
@@ -2117,10 +2134,10 @@
     <row r="2" spans="1:13" ht="31">
       <c r="A2" s="1"/>
       <c r="B2" s="19" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -2147,10 +2164,10 @@
     <row r="3" spans="1:13" ht="18">
       <c r="A3" s="1"/>
       <c r="B3" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -2167,10 +2184,10 @@
     <row r="4" spans="1:13" ht="18">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -2187,10 +2204,10 @@
     <row r="5" spans="1:13" ht="31">
       <c r="A5" s="1"/>
       <c r="B5" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -2207,10 +2224,10 @@
     <row r="6" spans="1:13" ht="21">
       <c r="A6" s="1"/>
       <c r="B6" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -2267,31 +2284,31 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EB2795-F6E7-D149-BA96-099EC7B435E4}">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="47.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.1640625" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" customWidth="1"/>
-    <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="27.1640625" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" customWidth="1"/>
+    <col min="14" max="14" width="11" customWidth="1"/>
+    <col min="15" max="15" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2299,95 +2316,103 @@
         <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
       </c>
       <c r="I1" t="s">
         <v>23</v>
       </c>
       <c r="J1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" t="s">
         <v>86</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>57</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="O1" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>88</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>89</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>90</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19" ht="19">
       <c r="A2" s="12"/>
       <c r="B2" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="O2" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="I2" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="N2" s="16" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -2402,8 +2427,9 @@
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="O3" s="11"/>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -2418,8 +2444,9 @@
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="O4" s="11"/>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -2434,8 +2461,9 @@
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="O5" s="11"/>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -2450,8 +2478,12 @@
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{75155FBB-1964-D441-A17E-08F0EC04F0CE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -2462,7 +2494,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="E2:H2"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2505,22 +2537,22 @@
     <row r="2" spans="1:9" ht="18">
       <c r="A2" s="1"/>
       <c r="B2" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F2" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="G2" s="23" t="s">
         <v>141</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>143</v>
       </c>
       <c r="H2" s="21">
         <v>200000002158</v>
@@ -2547,7 +2579,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2596,28 +2628,28 @@
     <row r="2" spans="1:11" ht="18">
       <c r="A2" s="1"/>
       <c r="B2" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" t="s">
-        <v>76</v>
+        <v>120</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>115</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F2" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="G2" s="23" t="s">
         <v>141</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>143</v>
       </c>
       <c r="H2" s="21">
         <v>200000002158</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J2" s="21">
         <v>100000073611</v>
@@ -2639,7 +2671,7 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2735,16 +2767,16 @@
     <row r="2" spans="1:23">
       <c r="A2" s="1"/>
       <c r="B2" s="9" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D2" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F2" t="s">
         <v>32</v>
@@ -2753,13 +2785,13 @@
         <v>100000155527</v>
       </c>
       <c r="H2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I2" s="9">
         <v>654321</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K2" s="2">
         <v>100000073504</v>
@@ -2768,7 +2800,7 @@
         <v>1</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="N2" s="14">
         <v>200000003529</v>
